--- a/CE01ISSP/Omaha_Cal_Info_CE01ISSP_00003.xlsx
+++ b/CE01ISSP/Omaha_Cal_Info_CE01ISSP_00003.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="579" activeTab="1"/>
+    <workbookView xWindow="1905" yWindow="315" windowWidth="25605" windowHeight="16065" tabRatio="579" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$G$51</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="102">
   <si>
     <t>Ref Des</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Constant.  wlupper = Upper wavelength limit for spectra fit. From DPS: 240 nm (1-cm pathlength probe tip) or 245 nm (4-cm pathlength probe tip)</t>
   </si>
   <si>
-    <t>25 m</t>
-  </si>
-  <si>
     <t>Requires TEMPWAT, PRESWAT and PRACSAL from CE06ISSP-SP001-09-CTDPFJ000</t>
   </si>
   <si>
@@ -359,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="37" x14ac:knownFonts="1">
     <font>
@@ -598,12 +595,14 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.1"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -717,14 +716,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1246,7 +1245,7 @@
     <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,10 +1264,10 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1337,7 +1336,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="25" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1884,7 +1883,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -2225,27 +2224,27 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="28">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2280,12 +2279,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>90</v>
       </c>
       <c r="C2" s="44">
         <v>3</v>
@@ -2300,16 +2299,16 @@
         <v>42229</v>
       </c>
       <c r="G2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="44">
+        <v>25</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="I2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="L2" s="8">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -2320,19 +2319,19 @@
         <v>-124.09811999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
@@ -2341,7 +2340,7 @@
         <v>44.64828</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
@@ -2350,67 +2349,67 @@
         <v>-124.09811999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="9" customFormat="1">
+    <row r="13" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="9" customFormat="1">
+    <row r="14" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="9" customFormat="1">
+    <row r="15" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="9" customFormat="1">
+    <row r="16" spans="1:13" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="3:6" s="9" customFormat="1">
+    <row r="17" spans="3:6" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -2434,22 +2433,22 @@
   </sheetPr>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" style="7" customWidth="1"/>
-    <col min="5" max="5" width="37.83203125" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2481,12 +2480,12 @@
       <c r="F2" s="20"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1">
+    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="24">
         <v>3</v>
@@ -2504,12 +2503,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="28">
         <v>3</v>
@@ -2527,12 +2526,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="15">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="28">
         <v>3</v>
@@ -2544,18 +2543,18 @@
         <v>6</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="28">
         <v>3</v>
@@ -2564,16 +2563,16 @@
         <v>353</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1">
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -2582,62 +2581,62 @@
       <c r="F7" s="25"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1">
+    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="24">
         <v>3</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1">
+    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="28">
         <v>3</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" s="7" customFormat="1">
+    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="28">
         <v>3</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>50</v>
@@ -2647,112 +2646,112 @@
       </c>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="28">
         <v>3</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="28">
         <v>3</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="28">
         <v>3</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="28">
         <v>3</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="28">
         <v>3</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" s="7" customFormat="1">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
@@ -2761,18 +2760,18 @@
       <c r="F16" s="25"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1">
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="24">
         <v>3</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>7</v>
@@ -2784,18 +2783,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="28">
         <v>3</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>8</v>
@@ -2807,7 +2806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
@@ -2816,12 +2815,12 @@
       <c r="F19" s="25"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1">
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="24">
         <v>3</v>
@@ -2839,12 +2838,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1">
+    <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="28">
         <v>3</v>
@@ -2862,12 +2861,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1">
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="28">
         <v>3</v>
@@ -2885,12 +2884,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1">
+    <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="28">
         <v>3</v>
@@ -2902,18 +2901,18 @@
         <v>41</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1">
+    <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="28">
         <v>3</v>
@@ -2925,18 +2924,18 @@
         <v>43</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G24" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="28">
         <v>3</v>
@@ -2948,18 +2947,18 @@
         <v>45</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="28">
         <v>3</v>
@@ -2971,13 +2970,13 @@
         <v>47</v>
       </c>
       <c r="F26" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="7" customFormat="1">
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -2986,12 +2985,12 @@
       <c r="F27" s="25"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1">
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="24">
         <v>3</v>
@@ -3003,16 +3002,16 @@
         <v>34</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1">
+    <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="28">
         <v>3</v>
@@ -3024,16 +3023,16 @@
         <v>35</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="28">
         <v>3</v>
@@ -3045,11 +3044,11 @@
         <v>36</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1">
+    <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
@@ -3058,12 +3057,12 @@
       <c r="F31" s="25"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1">
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="24">
         <v>3</v>
@@ -3081,12 +3080,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
+    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="28">
         <v>3</v>
@@ -3104,12 +3103,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1">
+    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="28">
         <v>3</v>
@@ -3127,12 +3126,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1">
+    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="28">
         <v>3</v>
@@ -3150,12 +3149,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
+    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="28">
         <v>3</v>
@@ -3173,12 +3172,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
+    <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="28">
         <v>3</v>
@@ -3196,12 +3195,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1">
+    <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="28">
         <v>3</v>
@@ -3219,12 +3218,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1">
+    <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="28">
         <v>3</v>
@@ -3242,12 +3241,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="28">
         <v>3</v>
@@ -3265,12 +3264,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1">
+    <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="28">
         <v>3</v>
@@ -3288,7 +3287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1">
+    <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
@@ -3297,18 +3296,18 @@
       <c r="F42" s="25"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1">
+    <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="24">
         <v>3</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>7</v>
@@ -3320,18 +3319,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1">
+    <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="28">
         <v>3</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>8</v>
@@ -3343,7 +3342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1">
+    <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
@@ -3352,12 +3351,12 @@
       <c r="F45" s="25"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1">
+    <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="24">
         <v>3</v>
@@ -3373,12 +3372,12 @@
       </c>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1">
+    <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="28">
         <v>3</v>
@@ -3394,12 +3393,12 @@
       </c>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1">
+    <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="28">
         <v>3</v>
@@ -3415,7 +3414,7 @@
       </c>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" s="13" customFormat="1">
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="24"/>
@@ -3424,27 +3423,27 @@
       <c r="F49" s="34"/>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1">
+    <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="24">
         <v>3</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="36"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1"/>
-    <row r="52" spans="1:7" s="7" customFormat="1"/>
-    <row r="53" spans="1:7" s="7" customFormat="1"/>
-    <row r="54" spans="1:7" s="7" customFormat="1"/>
+    <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3465,9 +3464,9 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-2.5780999999999998E-2</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>2.1193E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.7167999999999999E-2</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>1.1336000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-8.5559999999999994E-3</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>2.3340000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.0000000000000002E-5</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>-4.3610000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.117E-3</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>-7.6249999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.182E-3</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>-9.7070000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4.6540000000000002E-3</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>-1.0126E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.8370000000000001E-3</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>-9.5200000000000007E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.9389999999999998E-3</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>-9.9399999999999992E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.679E-3</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>-9.6399999999999993E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.9609999999999993E-3</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>-9.2029999999999994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.8800000000000007E-3</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>-8.9390000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9.4479999999999998E-3</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>-8.8070000000000006E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.8200000000000006E-3</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>-8.3180000000000007E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.0178E-2</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>-8.3160000000000005E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.1164E-2</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>-7.9609999999999993E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.1211E-2</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>-7.6880000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.0957E-2</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>-7.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0567E-2</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>-7.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.6740000000000003E-3</v>
       </c>
@@ -5607,7 +5606,7 @@
         <v>-6.6239999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.3410000000000003E-3</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>-6.306E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.4539999999999997E-3</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>-5.8950000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8.2310000000000005E-3</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>-5.509E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7.3109999999999998E-3</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>-5.019E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.7530000000000003E-3</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>-4.646E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6.3889999999999997E-3</v>
       </c>
@@ -6249,7 +6248,7 @@
         <v>-4.2750000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.8970000000000003E-3</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.5420000000000001E-3</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>-3.4640000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.9880000000000002E-3</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>-3.1089999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.999E-3</v>
       </c>
@@ -6677,7 +6676,7 @@
         <v>-2.807E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.6410000000000002E-3</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>-2.444E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4.5269999999999998E-3</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>-2.173E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.1970000000000002E-3</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>-1.92E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.8089999999999999E-3</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.189E-3</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>-1.567E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.2560000000000002E-3</v>
       </c>
@@ -7319,7 +7318,7 @@
         <v>-1.438E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1.147E-3</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>-1.341E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.4700000000000002E-4</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>-1.328E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.1570000000000001E-3</v>
       </c>
@@ -7640,7 +7639,7 @@
         <v>-1.4239999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-3.0799999999999998E-3</v>
       </c>
@@ -7747,7 +7746,7 @@
         <v>-1.467E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-3.5469999999999998E-3</v>
       </c>
@@ -7854,7 +7853,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-3.1150000000000001E-3</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>-1.7359999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-5.0340000000000003E-3</v>
       </c>
@@ -8068,7 +8067,7 @@
         <v>-7.4200000000000004E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-4.5750000000000001E-3</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>-7.5600000000000005E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-4.5779999999999996E-3</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>-7.2400000000000003E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.176E-3</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>-7.2400000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-4.071E-3</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>-7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-3.8679999999999999E-3</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>-7.8799999999999996E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-3.5279999999999999E-3</v>
       </c>
@@ -8710,7 +8709,7 @@
         <v>-7.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>-7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.4169999999999999E-3</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>-7.94E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.483E-3</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>-7.9100000000000004E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-3.454E-3</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>-7.2199999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-3.4759999999999999E-3</v>
       </c>
@@ -9245,7 +9244,7 @@
         <v>-7.1699999999999997E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-3.5729999999999998E-3</v>
       </c>
@@ -9352,7 +9351,7 @@
         <v>-7.2000000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-3.666E-3</v>
       </c>
@@ -9459,7 +9458,7 @@
         <v>-6.5499999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-3.771E-3</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>-6.4599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-3.8969999999999999E-3</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>-6.0800000000000003E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-4.0460000000000001E-3</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>-6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-4.1229999999999999E-3</v>
       </c>
@@ -9887,7 +9886,7 @@
         <v>-5.71E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-4.4140000000000004E-3</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>-5.0500000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-4.5139999999999998E-3</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>-4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-4.5279999999999999E-3</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>-4.3399999999999998E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-4.7699999999999999E-3</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>-4.0299999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-4.6909999999999999E-3</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>-3.4900000000000003E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-4.9100000000000003E-3</v>
       </c>
@@ -10529,7 +10528,7 @@
         <v>-3.3E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-4.9040000000000004E-3</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>-3.1199999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-4.9459999999999999E-3</v>
       </c>
@@ -10743,7 +10742,7 @@
         <v>-3.1500000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-5.2160000000000002E-3</v>
       </c>
@@ -10850,7 +10849,7 @@
         <v>-2.9100000000000003E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-5.1619999999999999E-3</v>
       </c>
@@ -10957,7 +10956,7 @@
         <v>-2.5099999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-5.267E-3</v>
       </c>
@@ -11064,7 +11063,7 @@
         <v>-2.6899999999999998E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-5.3049999999999998E-3</v>
       </c>
@@ -11171,7 +11170,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-5.1419999999999999E-3</v>
       </c>
@@ -11278,7 +11277,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-5.0359999999999997E-3</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>-1.83E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-5.3579999999999999E-3</v>
       </c>
@@ -11492,7 +11491,7 @@
         <v>-7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-5.3299999999999997E-3</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-5.3070000000000001E-3</v>
       </c>
@@ -11706,7 +11705,7 @@
         <v>7.6000000000000004E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-5.2009999999999999E-3</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>1.05E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-4.8599999999999997E-3</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>1.8900000000000001E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-4.6449999999999998E-3</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>1.3899999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-4.365E-3</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>2.02E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-4.7549999999999997E-3</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>2.1100000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-4.6899999999999997E-3</v>
       </c>
@@ -12348,7 +12347,7 @@
         <v>3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-5.0220000000000004E-3</v>
       </c>
@@ -12455,7 +12454,7 @@
         <v>3.7100000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-5.5160000000000001E-3</v>
       </c>
@@ -12580,9 +12579,9 @@
       <selection sqref="A1:AI85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-4.1287999999999998E-2</v>
       </c>
@@ -12689,7 +12688,7 @@
         <v>-1.4790000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.1367000000000001E-2</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>-2.611E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3.7718000000000002E-2</v>
       </c>
@@ -12903,7 +12902,7 @@
         <v>-1.418E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-3.5545E-2</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>-2.5010000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.0488999999999999E-2</v>
       </c>
@@ -13117,7 +13116,7 @@
         <v>-2.6819999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.7740999999999998E-2</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>-3.4970000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.4542999999999999E-2</v>
       </c>
@@ -13331,7 +13330,7 @@
         <v>-2.663E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.3806999999999998E-2</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>-3.852E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-2.1422E-2</v>
       </c>
@@ -13545,7 +13544,7 @@
         <v>-4.0220000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.0753000000000001E-2</v>
       </c>
@@ -13652,7 +13651,7 @@
         <v>-4.2459999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.8873999999999998E-2</v>
       </c>
@@ -13759,7 +13758,7 @@
         <v>-3.9769999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.8828999999999999E-2</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>-4.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.8471000000000001E-2</v>
       </c>
@@ -13973,7 +13972,7 @@
         <v>-4.2909999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.7864000000000001E-2</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>-4.2659999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.7205000000000002E-2</v>
       </c>
@@ -14187,7 +14186,7 @@
         <v>-4.1949999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.7103E-2</v>
       </c>
@@ -14294,7 +14293,7 @@
         <v>-4.1640000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-1.6115999999999998E-2</v>
       </c>
@@ -14401,7 +14400,7 @@
         <v>-4.267E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.5507E-2</v>
       </c>
@@ -14508,7 +14507,7 @@
         <v>-4.1989999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.473E-2</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>-4.15E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-1.3806000000000001E-2</v>
       </c>
@@ -14722,7 +14721,7 @@
         <v>-4.0239999999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-1.2939000000000001E-2</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>-4.0619999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-1.2475E-2</v>
       </c>
@@ -14936,7 +14935,7 @@
         <v>-3.9150000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-1.1646999999999999E-2</v>
       </c>
@@ -15043,7 +15042,7 @@
         <v>-3.954E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-1.0881E-2</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>-4.0109999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-1.0399E-2</v>
       </c>
@@ -15257,7 +15256,7 @@
         <v>-3.8639999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-9.9030000000000003E-3</v>
       </c>
@@ -15364,7 +15363,7 @@
         <v>-3.8570000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9.4710000000000003E-3</v>
       </c>
@@ -15471,7 +15470,7 @@
         <v>-3.7780000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8.8470000000000007E-3</v>
       </c>
@@ -15578,7 +15577,7 @@
         <v>-3.908E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-8.4019999999999997E-3</v>
       </c>
@@ -15685,7 +15684,7 @@
         <v>-3.8609999999999998E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-7.5960000000000003E-3</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>-3.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.1190000000000003E-3</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>-3.8119999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-6.5079999999999999E-3</v>
       </c>
@@ -16006,7 +16005,7 @@
         <v>-3.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-5.9249999999999997E-3</v>
       </c>
@@ -16113,7 +16112,7 @@
         <v>-3.7580000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-5.1320000000000003E-3</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>-3.6679999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-4.8580000000000003E-3</v>
       </c>
@@ -16327,7 +16326,7 @@
         <v>-3.5309999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.9160000000000002E-3</v>
       </c>
@@ -16434,7 +16433,7 @@
         <v>-3.421E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-5.2449999999999997E-3</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>-3.2940000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-5.8999999999999999E-3</v>
       </c>
@@ -16648,7 +16647,7 @@
         <v>-3.0309999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-6.7629999999999999E-3</v>
       </c>
@@ -16755,7 +16754,7 @@
         <v>-2.8449999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-7.8220000000000008E-3</v>
       </c>
@@ -16862,7 +16861,7 @@
         <v>-2.6319999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-8.6490000000000004E-3</v>
       </c>
@@ -16969,7 +16968,7 @@
         <v>-2.4719999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-9.639E-3</v>
       </c>
@@ -17076,7 +17075,7 @@
         <v>-2.3349999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-9.6080000000000002E-3</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>-1.536E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-9.6089999999999995E-3</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>-1.469E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-9.2999999999999992E-3</v>
       </c>
@@ -17397,7 +17396,7 @@
         <v>-1.469E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-8.9479999999999994E-3</v>
       </c>
@@ -17504,7 +17503,7 @@
         <v>-1.4809999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-9.0410000000000004E-3</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>-1.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-8.6440000000000006E-3</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>-1.555E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-8.4069999999999995E-3</v>
       </c>
@@ -17825,7 +17824,7 @@
         <v>-1.66E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-8.2459999999999999E-3</v>
       </c>
@@ -17932,7 +17931,7 @@
         <v>-1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-8.064E-3</v>
       </c>
@@ -18039,7 +18038,7 @@
         <v>-1.7750000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-8.2019999999999992E-3</v>
       </c>
@@ -18146,7 +18145,7 @@
         <v>-1.8450000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-8.0560000000000007E-3</v>
       </c>
@@ -18253,7 +18252,7 @@
         <v>-1.902E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-7.9369999999999996E-3</v>
       </c>
@@ -18360,7 +18359,7 @@
         <v>-1.933E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-7.9690000000000004E-3</v>
       </c>
@@ -18467,7 +18466,7 @@
         <v>-1.97E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-7.7330000000000003E-3</v>
       </c>
@@ -18574,7 +18573,7 @@
         <v>-2.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-7.7270000000000004E-3</v>
       </c>
@@ -18681,7 +18680,7 @@
         <v>-2.055E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-7.705E-3</v>
       </c>
@@ -18788,7 +18787,7 @@
         <v>-2.088E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-7.4609999999999998E-3</v>
       </c>
@@ -18895,7 +18894,7 @@
         <v>-2.1220000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-7.3410000000000003E-3</v>
       </c>
@@ -19002,7 +19001,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-7.3309999999999998E-3</v>
       </c>
@@ -19109,7 +19108,7 @@
         <v>-2.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-7.1980000000000004E-3</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>-2.1710000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-7.2509999999999996E-3</v>
       </c>
@@ -19323,7 +19322,7 @@
         <v>-2.2599999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-7.1089999999999999E-3</v>
       </c>
@@ -19430,7 +19429,7 @@
         <v>-2.2799999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-6.8580000000000004E-3</v>
       </c>
@@ -19537,7 +19536,7 @@
         <v>-2.3530000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-6.986E-3</v>
       </c>
@@ -19644,7 +19643,7 @@
         <v>-2.4290000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-6.9249999999999997E-3</v>
       </c>
@@ -19751,7 +19750,7 @@
         <v>-2.5379999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-6.7470000000000004E-3</v>
       </c>
@@ -19858,7 +19857,7 @@
         <v>-2.5509999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-6.8209999999999998E-3</v>
       </c>
@@ -19965,7 +19964,7 @@
         <v>-2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-6.6490000000000004E-3</v>
       </c>
@@ -20072,7 +20071,7 @@
         <v>-2.6949999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-6.4850000000000003E-3</v>
       </c>
@@ -20179,7 +20178,7 @@
         <v>-2.7950000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-6.3400000000000001E-3</v>
       </c>
@@ -20286,7 +20285,7 @@
         <v>-2.9629999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-6.1980000000000004E-3</v>
       </c>
@@ -20393,7 +20392,7 @@
         <v>-2.9659999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-6.0150000000000004E-3</v>
       </c>
@@ -20500,7 +20499,7 @@
         <v>-2.9949999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-5.9810000000000002E-3</v>
       </c>
@@ -20607,7 +20606,7 @@
         <v>-3.068E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -20714,7 +20713,7 @@
         <v>-3.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-6.1149999999999998E-3</v>
       </c>
@@ -20821,7 +20820,7 @@
         <v>-2.905E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-6.5690000000000002E-3</v>
       </c>
@@ -20928,7 +20927,7 @@
         <v>-2.8839999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-6.6020000000000002E-3</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>-2.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-6.3099999999999996E-3</v>
       </c>
@@ -21142,7 +21141,7 @@
         <v>-2.6740000000000002E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-6.2199999999999998E-3</v>
       </c>
@@ -21249,7 +21248,7 @@
         <v>-2.6849999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>-5.9670000000000001E-3</v>
       </c>
@@ -21356,7 +21355,7 @@
         <v>-2.689E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>-5.4429999999999999E-3</v>
       </c>
@@ -21463,7 +21462,7 @@
         <v>-2.6489999999999999E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-4.9690000000000003E-3</v>
       </c>
@@ -21570,7 +21569,7 @@
         <v>-2.761E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-5.0340000000000003E-3</v>
       </c>
